--- a/Отчет Эпизотолог/01.2020 - месячный/01.2020-Форма № 1-Вет все страницы.xlsx
+++ b/Отчет Эпизотолог/01.2020 - месячный/01.2020-Форма № 1-Вет все страницы.xlsx
@@ -21,6 +21,7 @@
     <sheet name="♂  ♀" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="383">
   <si>
     <t>Подають:</t>
   </si>
@@ -2278,6 +2279,9 @@
     <xf numFmtId="49" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2296,9 +2300,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2374,6 +2375,12 @@
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2389,18 +2396,12 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2426,20 +2427,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2475,9 +2479,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3797,10 +3798,10 @@
       <c r="J5" s="134"/>
       <c r="K5" s="134"/>
       <c r="L5" s="134"/>
-      <c r="M5" s="179" t="s">
+      <c r="M5" s="178" t="s">
         <v>217</v>
       </c>
-      <c r="N5" s="179"/>
+      <c r="N5" s="178"/>
       <c r="O5" s="133" t="s">
         <v>218</v>
       </c>
@@ -3839,10 +3840,10 @@
       <c r="J6" s="134"/>
       <c r="K6" s="134"/>
       <c r="L6" s="134"/>
-      <c r="M6" s="179" t="s">
+      <c r="M6" s="178" t="s">
         <v>226</v>
       </c>
-      <c r="N6" s="179"/>
+      <c r="N6" s="178"/>
       <c r="O6" s="133" t="s">
         <v>227</v>
       </c>
@@ -3881,10 +3882,10 @@
       <c r="J7" s="134"/>
       <c r="K7" s="134"/>
       <c r="L7" s="134"/>
-      <c r="M7" s="179" t="s">
+      <c r="M7" s="178" t="s">
         <v>230</v>
       </c>
-      <c r="N7" s="179"/>
+      <c r="N7" s="178"/>
       <c r="O7" s="133" t="s">
         <v>231</v>
       </c>
@@ -3923,10 +3924,10 @@
       <c r="J8" s="134"/>
       <c r="K8" s="134"/>
       <c r="L8" s="134"/>
-      <c r="M8" s="179" t="s">
+      <c r="M8" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="N8" s="179"/>
+      <c r="N8" s="178"/>
       <c r="O8" s="133" t="s">
         <v>238</v>
       </c>
@@ -3965,10 +3966,10 @@
       <c r="J9" s="134"/>
       <c r="K9" s="134"/>
       <c r="L9" s="134"/>
-      <c r="M9" s="179" t="s">
+      <c r="M9" s="178" t="s">
         <v>241</v>
       </c>
-      <c r="N9" s="179"/>
+      <c r="N9" s="178"/>
       <c r="O9" s="133" t="s">
         <v>242</v>
       </c>
@@ -4007,10 +4008,10 @@
       <c r="J10" s="134"/>
       <c r="K10" s="134"/>
       <c r="L10" s="134"/>
-      <c r="M10" s="179" t="s">
+      <c r="M10" s="178" t="s">
         <v>244</v>
       </c>
-      <c r="N10" s="179"/>
+      <c r="N10" s="178"/>
       <c r="O10" s="133" t="s">
         <v>245</v>
       </c>
@@ -4049,10 +4050,10 @@
       <c r="J11" s="134"/>
       <c r="K11" s="134"/>
       <c r="L11" s="134"/>
-      <c r="M11" s="179" t="s">
+      <c r="M11" s="178" t="s">
         <v>248</v>
       </c>
-      <c r="N11" s="179"/>
+      <c r="N11" s="178"/>
       <c r="O11" s="133" t="s">
         <v>249</v>
       </c>
@@ -4091,10 +4092,10 @@
       <c r="J12" s="134"/>
       <c r="K12" s="134"/>
       <c r="L12" s="134"/>
-      <c r="M12" s="179" t="s">
+      <c r="M12" s="178" t="s">
         <v>256</v>
       </c>
-      <c r="N12" s="179"/>
+      <c r="N12" s="178"/>
       <c r="O12" s="133" t="s">
         <v>257</v>
       </c>
@@ -4133,10 +4134,10 @@
       <c r="J13" s="134"/>
       <c r="K13" s="134"/>
       <c r="L13" s="134"/>
-      <c r="M13" s="179" t="s">
+      <c r="M13" s="178" t="s">
         <v>267</v>
       </c>
-      <c r="N13" s="179"/>
+      <c r="N13" s="178"/>
       <c r="O13" s="133" t="s">
         <v>268</v>
       </c>
@@ -4175,10 +4176,10 @@
       <c r="J14" s="134"/>
       <c r="K14" s="134"/>
       <c r="L14" s="134"/>
-      <c r="M14" s="179" t="s">
+      <c r="M14" s="178" t="s">
         <v>272</v>
       </c>
-      <c r="N14" s="179"/>
+      <c r="N14" s="178"/>
       <c r="O14" s="133" t="s">
         <v>273</v>
       </c>
@@ -4217,10 +4218,10 @@
       <c r="J15" s="134"/>
       <c r="K15" s="134"/>
       <c r="L15" s="134"/>
-      <c r="M15" s="179" t="s">
+      <c r="M15" s="178" t="s">
         <v>286</v>
       </c>
-      <c r="N15" s="179"/>
+      <c r="N15" s="178"/>
       <c r="O15" s="133" t="s">
         <v>287</v>
       </c>
@@ -4259,10 +4260,10 @@
       <c r="J16" s="134"/>
       <c r="K16" s="134"/>
       <c r="L16" s="134"/>
-      <c r="M16" s="179" t="s">
+      <c r="M16" s="178" t="s">
         <v>289</v>
       </c>
-      <c r="N16" s="179"/>
+      <c r="N16" s="178"/>
       <c r="O16" s="133" t="s">
         <v>290</v>
       </c>
@@ -4301,10 +4302,10 @@
       <c r="J17" s="134"/>
       <c r="K17" s="134"/>
       <c r="L17" s="134"/>
-      <c r="M17" s="179" t="s">
+      <c r="M17" s="178" t="s">
         <v>294</v>
       </c>
-      <c r="N17" s="179"/>
+      <c r="N17" s="178"/>
       <c r="O17" s="133" t="s">
         <v>295</v>
       </c>
@@ -4343,10 +4344,10 @@
       <c r="J18" s="134"/>
       <c r="K18" s="134"/>
       <c r="L18" s="134"/>
-      <c r="M18" s="179" t="s">
+      <c r="M18" s="178" t="s">
         <v>297</v>
       </c>
-      <c r="N18" s="179"/>
+      <c r="N18" s="178"/>
       <c r="O18" s="133" t="s">
         <v>298</v>
       </c>
@@ -4385,10 +4386,10 @@
       <c r="J19" s="134"/>
       <c r="K19" s="134"/>
       <c r="L19" s="134"/>
-      <c r="M19" s="179" t="s">
+      <c r="M19" s="178" t="s">
         <v>302</v>
       </c>
-      <c r="N19" s="179"/>
+      <c r="N19" s="178"/>
       <c r="O19" s="133" t="s">
         <v>303</v>
       </c>
@@ -4427,10 +4428,10 @@
       <c r="J20" s="134"/>
       <c r="K20" s="134"/>
       <c r="L20" s="134"/>
-      <c r="M20" s="179" t="s">
+      <c r="M20" s="178" t="s">
         <v>267</v>
       </c>
-      <c r="N20" s="179"/>
+      <c r="N20" s="178"/>
       <c r="O20" s="133" t="s">
         <v>268</v>
       </c>
@@ -4469,10 +4470,10 @@
       <c r="J21" s="134"/>
       <c r="K21" s="134"/>
       <c r="L21" s="134"/>
-      <c r="M21" s="179" t="s">
+      <c r="M21" s="178" t="s">
         <v>310</v>
       </c>
-      <c r="N21" s="179"/>
+      <c r="N21" s="178"/>
       <c r="O21" s="133" t="s">
         <v>311</v>
       </c>
@@ -4511,10 +4512,10 @@
       <c r="J22" s="134"/>
       <c r="K22" s="134"/>
       <c r="L22" s="134"/>
-      <c r="M22" s="178" t="s">
+      <c r="M22" s="179" t="s">
         <v>313</v>
       </c>
-      <c r="N22" s="178"/>
+      <c r="N22" s="179"/>
       <c r="O22" s="133" t="s">
         <v>273</v>
       </c>
@@ -4553,10 +4554,10 @@
       <c r="J23" s="134"/>
       <c r="K23" s="134"/>
       <c r="L23" s="134"/>
-      <c r="M23" s="179" t="s">
+      <c r="M23" s="178" t="s">
         <v>244</v>
       </c>
-      <c r="N23" s="179"/>
+      <c r="N23" s="178"/>
       <c r="O23" s="133" t="s">
         <v>245</v>
       </c>
@@ -4595,10 +4596,10 @@
       <c r="J24" s="134"/>
       <c r="K24" s="134"/>
       <c r="L24" s="134"/>
-      <c r="M24" s="178" t="s">
+      <c r="M24" s="179" t="s">
         <v>316</v>
       </c>
-      <c r="N24" s="178"/>
+      <c r="N24" s="179"/>
       <c r="O24" s="133" t="s">
         <v>317</v>
       </c>
@@ -4679,10 +4680,10 @@
       <c r="J26" s="134"/>
       <c r="K26" s="134"/>
       <c r="L26" s="134"/>
-      <c r="M26" s="178" t="s">
+      <c r="M26" s="179" t="s">
         <v>325</v>
       </c>
-      <c r="N26" s="178"/>
+      <c r="N26" s="179"/>
       <c r="O26" s="133" t="s">
         <v>326</v>
       </c>
@@ -4721,10 +4722,10 @@
       <c r="J27" s="134"/>
       <c r="K27" s="134"/>
       <c r="L27" s="134"/>
-      <c r="M27" s="178" t="s">
+      <c r="M27" s="179" t="s">
         <v>325</v>
       </c>
-      <c r="N27" s="178"/>
+      <c r="N27" s="179"/>
       <c r="O27" s="133" t="s">
         <v>328</v>
       </c>
@@ -4763,10 +4764,10 @@
       <c r="J28" s="134"/>
       <c r="K28" s="134"/>
       <c r="L28" s="134"/>
-      <c r="M28" s="178" t="s">
+      <c r="M28" s="179" t="s">
         <v>325</v>
       </c>
-      <c r="N28" s="178"/>
+      <c r="N28" s="179"/>
       <c r="O28" s="133" t="s">
         <v>329</v>
       </c>
@@ -4962,33 +4963,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="190" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
@@ -5025,16 +5026,16 @@
       <c r="C3" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="205" t="s">
+      <c r="D3" s="193" t="s">
         <v>370</v>
       </c>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="172">
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="174">
         <v>2020</v>
       </c>
-      <c r="I3" s="172"/>
+      <c r="I3" s="174"/>
       <c r="J3" s="30" t="s">
         <v>169</v>
       </c>
@@ -5088,23 +5089,23 @@
       <c r="B5" s="167"/>
       <c r="C5" s="167"/>
       <c r="D5" s="167"/>
-      <c r="E5" s="192" t="s">
+      <c r="E5" s="191" t="s">
         <v>334</v>
       </c>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="191"/>
       <c r="J5" s="45" t="s">
         <v>50</v>
       </c>
       <c r="K5" s="45"/>
       <c r="L5" s="45"/>
-      <c r="M5" s="172">
+      <c r="M5" s="174">
         <f>H3</f>
         <v>2020</v>
       </c>
-      <c r="N5" s="172"/>
+      <c r="N5" s="174"/>
       <c r="O5" s="30" t="s">
         <v>371</v>
       </c>
@@ -5191,21 +5192,21 @@
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
-      <c r="F8" s="172" t="s">
+      <c r="F8" s="174" t="s">
         <v>372</v>
       </c>
-      <c r="G8" s="172"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
       <c r="K8" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="L8" s="172" t="s">
+      <c r="L8" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="M8" s="172"/>
-      <c r="N8" s="172"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
       <c r="O8" s="55"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="45"/>
@@ -5230,21 +5231,21 @@
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
-      <c r="F9" s="172" t="s">
+      <c r="F9" s="174" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="174"/>
       <c r="K9" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="L9" s="172" t="s">
+      <c r="L9" s="174" t="s">
         <v>164</v>
       </c>
-      <c r="M9" s="172"/>
-      <c r="N9" s="172"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="174"/>
       <c r="O9" s="55"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="45"/>
@@ -5258,251 +5259,251 @@
       <c r="Y9" s="45"/>
     </row>
     <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="204" t="s">
+      <c r="B10" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="201" t="s">
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="201"/>
-      <c r="H10" s="201"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
       <c r="I10" s="189" t="s">
         <v>53</v>
       </c>
       <c r="J10" s="189"/>
       <c r="K10" s="189"/>
       <c r="L10" s="189"/>
-      <c r="M10" s="197" t="s">
+      <c r="M10" s="198" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="197"/>
-      <c r="O10" s="197"/>
-      <c r="P10" s="198"/>
-      <c r="Q10" s="203" t="s">
+      <c r="N10" s="198"/>
+      <c r="O10" s="198"/>
+      <c r="P10" s="199"/>
+      <c r="Q10" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="R10" s="203"/>
-      <c r="S10" s="203"/>
-      <c r="T10" s="203"/>
-      <c r="U10" s="203" t="s">
+      <c r="R10" s="204"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="204"/>
+      <c r="U10" s="204" t="s">
         <v>54</v>
       </c>
-      <c r="V10" s="203"/>
-      <c r="W10" s="203"/>
-      <c r="X10" s="203"/>
-      <c r="Y10" s="203"/>
+      <c r="V10" s="204"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="204"/>
     </row>
     <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="196"/>
-      <c r="B11" s="204"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="202"/>
+      <c r="A11" s="197"/>
+      <c r="B11" s="205"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="203"/>
+      <c r="H11" s="203"/>
       <c r="I11" s="189"/>
       <c r="J11" s="189"/>
       <c r="K11" s="189"/>
       <c r="L11" s="189"/>
-      <c r="M11" s="199"/>
-      <c r="N11" s="199"/>
-      <c r="O11" s="199"/>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="203"/>
-      <c r="R11" s="203"/>
-      <c r="S11" s="203"/>
-      <c r="T11" s="203"/>
-      <c r="U11" s="203"/>
-      <c r="V11" s="203"/>
-      <c r="W11" s="203"/>
-      <c r="X11" s="203"/>
-      <c r="Y11" s="203"/>
+      <c r="M11" s="200"/>
+      <c r="N11" s="200"/>
+      <c r="O11" s="200"/>
+      <c r="P11" s="201"/>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="204"/>
+      <c r="S11" s="204"/>
+      <c r="T11" s="204"/>
+      <c r="U11" s="204"/>
+      <c r="V11" s="204"/>
+      <c r="W11" s="204"/>
+      <c r="X11" s="204"/>
+      <c r="Y11" s="204"/>
     </row>
     <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="188">
+      <c r="A12" s="192">
         <v>1</v>
       </c>
-      <c r="B12" s="190" t="s">
+      <c r="B12" s="188" t="s">
         <v>374</v>
       </c>
-      <c r="C12" s="190"/>
-      <c r="D12" s="190"/>
-      <c r="E12" s="190"/>
-      <c r="F12" s="190" t="s">
+      <c r="C12" s="188"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="188" t="s">
         <v>375</v>
       </c>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="190" t="s">
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="188" t="s">
         <v>376</v>
       </c>
-      <c r="J12" s="190"/>
-      <c r="K12" s="190"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190" t="s">
+      <c r="J12" s="188"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="188" t="s">
         <v>377</v>
       </c>
-      <c r="N12" s="190"/>
-      <c r="O12" s="190"/>
-      <c r="P12" s="190"/>
-      <c r="Q12" s="190" t="s">
+      <c r="N12" s="188"/>
+      <c r="O12" s="188"/>
+      <c r="P12" s="188"/>
+      <c r="Q12" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="190"/>
-      <c r="S12" s="190"/>
-      <c r="T12" s="190"/>
-      <c r="U12" s="190" t="s">
+      <c r="R12" s="188"/>
+      <c r="S12" s="188"/>
+      <c r="T12" s="188"/>
+      <c r="U12" s="188" t="s">
         <v>378</v>
       </c>
-      <c r="V12" s="190"/>
-      <c r="W12" s="190"/>
-      <c r="X12" s="190"/>
-      <c r="Y12" s="190"/>
+      <c r="V12" s="188"/>
+      <c r="W12" s="188"/>
+      <c r="X12" s="188"/>
+      <c r="Y12" s="188"/>
     </row>
     <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="188"/>
-      <c r="B13" s="190"/>
-      <c r="C13" s="190"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="190"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="190"/>
-      <c r="M13" s="190"/>
-      <c r="N13" s="190"/>
-      <c r="O13" s="190"/>
-      <c r="P13" s="190"/>
-      <c r="Q13" s="190"/>
-      <c r="R13" s="190"/>
-      <c r="S13" s="190"/>
-      <c r="T13" s="190"/>
-      <c r="U13" s="190"/>
-      <c r="V13" s="190"/>
-      <c r="W13" s="190"/>
-      <c r="X13" s="190"/>
-      <c r="Y13" s="190"/>
+      <c r="A13" s="192"/>
+      <c r="B13" s="188"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="188"/>
+      <c r="P13" s="188"/>
+      <c r="Q13" s="188"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="188"/>
+      <c r="T13" s="188"/>
+      <c r="U13" s="188"/>
+      <c r="V13" s="188"/>
+      <c r="W13" s="188"/>
+      <c r="X13" s="188"/>
+      <c r="Y13" s="188"/>
     </row>
     <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="188"/>
-      <c r="B14" s="190"/>
-      <c r="C14" s="190"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="190"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="190"/>
-      <c r="P14" s="190"/>
-      <c r="Q14" s="190"/>
-      <c r="R14" s="190"/>
-      <c r="S14" s="190"/>
-      <c r="T14" s="190"/>
-      <c r="U14" s="190"/>
-      <c r="V14" s="190"/>
-      <c r="W14" s="190"/>
-      <c r="X14" s="190"/>
-      <c r="Y14" s="190"/>
+      <c r="A14" s="192"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="188"/>
+      <c r="P14" s="188"/>
+      <c r="Q14" s="188"/>
+      <c r="R14" s="188"/>
+      <c r="S14" s="188"/>
+      <c r="T14" s="188"/>
+      <c r="U14" s="188"/>
+      <c r="V14" s="188"/>
+      <c r="W14" s="188"/>
+      <c r="X14" s="188"/>
+      <c r="Y14" s="188"/>
     </row>
     <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="188"/>
-      <c r="B15" s="190"/>
-      <c r="C15" s="190"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="190"/>
-      <c r="O15" s="190"/>
-      <c r="P15" s="190"/>
-      <c r="Q15" s="190"/>
-      <c r="R15" s="190"/>
-      <c r="S15" s="190"/>
-      <c r="T15" s="190"/>
-      <c r="U15" s="190"/>
-      <c r="V15" s="190"/>
-      <c r="W15" s="190"/>
-      <c r="X15" s="190"/>
-      <c r="Y15" s="190"/>
+      <c r="A15" s="192"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="188"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="188"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="188"/>
+      <c r="O15" s="188"/>
+      <c r="P15" s="188"/>
+      <c r="Q15" s="188"/>
+      <c r="R15" s="188"/>
+      <c r="S15" s="188"/>
+      <c r="T15" s="188"/>
+      <c r="U15" s="188"/>
+      <c r="V15" s="188"/>
+      <c r="W15" s="188"/>
+      <c r="X15" s="188"/>
+      <c r="Y15" s="188"/>
     </row>
     <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="188"/>
-      <c r="B16" s="190"/>
-      <c r="C16" s="190"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="190"/>
-      <c r="M16" s="190"/>
-      <c r="N16" s="190"/>
-      <c r="O16" s="190"/>
-      <c r="P16" s="190"/>
-      <c r="Q16" s="190"/>
-      <c r="R16" s="190"/>
-      <c r="S16" s="190"/>
-      <c r="T16" s="190"/>
-      <c r="U16" s="190"/>
-      <c r="V16" s="190"/>
-      <c r="W16" s="190"/>
-      <c r="X16" s="190"/>
-      <c r="Y16" s="190"/>
+      <c r="A16" s="192"/>
+      <c r="B16" s="188"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="188"/>
+      <c r="O16" s="188"/>
+      <c r="P16" s="188"/>
+      <c r="Q16" s="188"/>
+      <c r="R16" s="188"/>
+      <c r="S16" s="188"/>
+      <c r="T16" s="188"/>
+      <c r="U16" s="188"/>
+      <c r="V16" s="188"/>
+      <c r="W16" s="188"/>
+      <c r="X16" s="188"/>
+      <c r="Y16" s="188"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="188"/>
-      <c r="B17" s="190"/>
-      <c r="C17" s="190"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="190"/>
-      <c r="L17" s="190"/>
-      <c r="M17" s="190"/>
-      <c r="N17" s="190"/>
-      <c r="O17" s="190"/>
-      <c r="P17" s="190"/>
-      <c r="Q17" s="190"/>
-      <c r="R17" s="190"/>
-      <c r="S17" s="190"/>
-      <c r="T17" s="190"/>
-      <c r="U17" s="190"/>
-      <c r="V17" s="190"/>
-      <c r="W17" s="190"/>
-      <c r="X17" s="190"/>
-      <c r="Y17" s="190"/>
+      <c r="A17" s="192"/>
+      <c r="B17" s="188"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="188"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="188"/>
+      <c r="O17" s="188"/>
+      <c r="P17" s="188"/>
+      <c r="Q17" s="188"/>
+      <c r="R17" s="188"/>
+      <c r="S17" s="188"/>
+      <c r="T17" s="188"/>
+      <c r="U17" s="188"/>
+      <c r="V17" s="188"/>
+      <c r="W17" s="188"/>
+      <c r="X17" s="188"/>
+      <c r="Y17" s="188"/>
     </row>
     <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="188">
+      <c r="A18" s="192">
         <v>5</v>
       </c>
       <c r="B18" s="189" t="s">
@@ -5511,171 +5512,171 @@
       <c r="C18" s="189"/>
       <c r="D18" s="189"/>
       <c r="E18" s="189"/>
-      <c r="F18" s="190" t="s">
+      <c r="F18" s="188" t="s">
         <v>380</v>
       </c>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="190" t="s">
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188" t="s">
         <v>165</v>
       </c>
-      <c r="J18" s="190"/>
-      <c r="K18" s="190"/>
-      <c r="L18" s="190"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="188"/>
+      <c r="L18" s="188"/>
       <c r="M18" s="189" t="s">
         <v>166</v>
       </c>
       <c r="N18" s="189"/>
       <c r="O18" s="189"/>
       <c r="P18" s="189"/>
-      <c r="Q18" s="190" t="s">
+      <c r="Q18" s="188" t="s">
         <v>68</v>
       </c>
-      <c r="R18" s="190"/>
-      <c r="S18" s="190"/>
-      <c r="T18" s="190"/>
-      <c r="U18" s="190" t="s">
+      <c r="R18" s="188"/>
+      <c r="S18" s="188"/>
+      <c r="T18" s="188"/>
+      <c r="U18" s="188" t="s">
         <v>381</v>
       </c>
-      <c r="V18" s="190"/>
-      <c r="W18" s="190"/>
-      <c r="X18" s="190"/>
-      <c r="Y18" s="190"/>
+      <c r="V18" s="188"/>
+      <c r="W18" s="188"/>
+      <c r="X18" s="188"/>
+      <c r="Y18" s="188"/>
     </row>
     <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="188"/>
+      <c r="A19" s="192"/>
       <c r="B19" s="189"/>
       <c r="C19" s="189"/>
       <c r="D19" s="189"/>
       <c r="E19" s="189"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="190"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="190"/>
-      <c r="K19" s="190"/>
-      <c r="L19" s="190"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="188"/>
+      <c r="J19" s="188"/>
+      <c r="K19" s="188"/>
+      <c r="L19" s="188"/>
       <c r="M19" s="189"/>
       <c r="N19" s="189"/>
       <c r="O19" s="189"/>
       <c r="P19" s="189"/>
-      <c r="Q19" s="190"/>
-      <c r="R19" s="190"/>
-      <c r="S19" s="190"/>
-      <c r="T19" s="190"/>
-      <c r="U19" s="190"/>
-      <c r="V19" s="190"/>
-      <c r="W19" s="190"/>
-      <c r="X19" s="190"/>
-      <c r="Y19" s="190"/>
+      <c r="Q19" s="188"/>
+      <c r="R19" s="188"/>
+      <c r="S19" s="188"/>
+      <c r="T19" s="188"/>
+      <c r="U19" s="188"/>
+      <c r="V19" s="188"/>
+      <c r="W19" s="188"/>
+      <c r="X19" s="188"/>
+      <c r="Y19" s="188"/>
     </row>
     <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="188"/>
+      <c r="A20" s="192"/>
       <c r="B20" s="189"/>
       <c r="C20" s="189"/>
       <c r="D20" s="189"/>
       <c r="E20" s="189"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="190"/>
-      <c r="L20" s="190"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="188"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="188"/>
+      <c r="L20" s="188"/>
       <c r="M20" s="189"/>
       <c r="N20" s="189"/>
       <c r="O20" s="189"/>
       <c r="P20" s="189"/>
-      <c r="Q20" s="190"/>
-      <c r="R20" s="190"/>
-      <c r="S20" s="190"/>
-      <c r="T20" s="190"/>
-      <c r="U20" s="190"/>
-      <c r="V20" s="190"/>
-      <c r="W20" s="190"/>
-      <c r="X20" s="190"/>
-      <c r="Y20" s="190"/>
+      <c r="Q20" s="188"/>
+      <c r="R20" s="188"/>
+      <c r="S20" s="188"/>
+      <c r="T20" s="188"/>
+      <c r="U20" s="188"/>
+      <c r="V20" s="188"/>
+      <c r="W20" s="188"/>
+      <c r="X20" s="188"/>
+      <c r="Y20" s="188"/>
     </row>
     <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="188"/>
+      <c r="A21" s="192"/>
       <c r="B21" s="189"/>
       <c r="C21" s="189"/>
       <c r="D21" s="189"/>
       <c r="E21" s="189"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="190"/>
-      <c r="L21" s="190"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="188"/>
+      <c r="K21" s="188"/>
+      <c r="L21" s="188"/>
       <c r="M21" s="189"/>
       <c r="N21" s="189"/>
       <c r="O21" s="189"/>
       <c r="P21" s="189"/>
-      <c r="Q21" s="190"/>
-      <c r="R21" s="190"/>
-      <c r="S21" s="190"/>
-      <c r="T21" s="190"/>
-      <c r="U21" s="190"/>
-      <c r="V21" s="190"/>
-      <c r="W21" s="190"/>
-      <c r="X21" s="190"/>
-      <c r="Y21" s="190"/>
+      <c r="Q21" s="188"/>
+      <c r="R21" s="188"/>
+      <c r="S21" s="188"/>
+      <c r="T21" s="188"/>
+      <c r="U21" s="188"/>
+      <c r="V21" s="188"/>
+      <c r="W21" s="188"/>
+      <c r="X21" s="188"/>
+      <c r="Y21" s="188"/>
     </row>
     <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="188"/>
+      <c r="A22" s="192"/>
       <c r="B22" s="189"/>
       <c r="C22" s="189"/>
       <c r="D22" s="189"/>
       <c r="E22" s="189"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="190"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="190"/>
-      <c r="K22" s="190"/>
-      <c r="L22" s="190"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="188"/>
+      <c r="L22" s="188"/>
       <c r="M22" s="189"/>
       <c r="N22" s="189"/>
       <c r="O22" s="189"/>
       <c r="P22" s="189"/>
-      <c r="Q22" s="190"/>
-      <c r="R22" s="190"/>
-      <c r="S22" s="190"/>
-      <c r="T22" s="190"/>
-      <c r="U22" s="190"/>
-      <c r="V22" s="190"/>
-      <c r="W22" s="190"/>
-      <c r="X22" s="190"/>
-      <c r="Y22" s="190"/>
+      <c r="Q22" s="188"/>
+      <c r="R22" s="188"/>
+      <c r="S22" s="188"/>
+      <c r="T22" s="188"/>
+      <c r="U22" s="188"/>
+      <c r="V22" s="188"/>
+      <c r="W22" s="188"/>
+      <c r="X22" s="188"/>
+      <c r="Y22" s="188"/>
     </row>
     <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="188"/>
+      <c r="A23" s="192"/>
       <c r="B23" s="189"/>
       <c r="C23" s="189"/>
       <c r="D23" s="189"/>
       <c r="E23" s="189"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="190"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="190"/>
-      <c r="J23" s="190"/>
-      <c r="K23" s="190"/>
-      <c r="L23" s="190"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="188"/>
+      <c r="L23" s="188"/>
       <c r="M23" s="189"/>
       <c r="N23" s="189"/>
       <c r="O23" s="189"/>
       <c r="P23" s="189"/>
-      <c r="Q23" s="190"/>
-      <c r="R23" s="190"/>
-      <c r="S23" s="190"/>
-      <c r="T23" s="190"/>
-      <c r="U23" s="190"/>
-      <c r="V23" s="190"/>
-      <c r="W23" s="190"/>
-      <c r="X23" s="190"/>
-      <c r="Y23" s="190"/>
+      <c r="Q23" s="188"/>
+      <c r="R23" s="188"/>
+      <c r="S23" s="188"/>
+      <c r="T23" s="188"/>
+      <c r="U23" s="188"/>
+      <c r="V23" s="188"/>
+      <c r="W23" s="188"/>
+      <c r="X23" s="188"/>
+      <c r="Y23" s="188"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
@@ -5715,11 +5716,11 @@
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
-      <c r="G25" s="176">
+      <c r="G25" s="171">
         <f>'Акт бешенство собаки'!E12</f>
         <v>13</v>
       </c>
-      <c r="H25" s="176"/>
+      <c r="H25" s="171"/>
       <c r="I25" s="45" t="s">
         <v>176</v>
       </c>
@@ -5730,8 +5731,8 @@
       <c r="N25" s="45"/>
       <c r="O25" s="45"/>
       <c r="P25" s="45"/>
-      <c r="Q25" s="176"/>
-      <c r="R25" s="176"/>
+      <c r="Q25" s="171"/>
+      <c r="R25" s="171"/>
       <c r="S25" s="45"/>
       <c r="U25" s="45"/>
       <c r="Y25" s="45"/>
@@ -5746,10 +5747,10 @@
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
-      <c r="H26" s="176">
+      <c r="H26" s="171">
         <v>24</v>
       </c>
-      <c r="I26" s="176"/>
+      <c r="I26" s="171"/>
       <c r="J26" s="45" t="s">
         <v>176</v>
       </c>
@@ -5775,10 +5776,10 @@
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
-      <c r="H27" s="176">
+      <c r="H27" s="171">
         <v>24</v>
       </c>
-      <c r="I27" s="176"/>
+      <c r="I27" s="171"/>
       <c r="J27" s="45" t="s">
         <v>176</v>
       </c>
@@ -5831,11 +5832,11 @@
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
-      <c r="G29" s="176">
+      <c r="G29" s="171">
         <f>'Акт сказ коты'!E13</f>
         <v>9</v>
       </c>
-      <c r="H29" s="176"/>
+      <c r="H29" s="171"/>
       <c r="I29" s="45" t="s">
         <v>176</v>
       </c>
@@ -5846,8 +5847,8 @@
       <c r="N29" s="45"/>
       <c r="O29" s="45"/>
       <c r="P29" s="45"/>
-      <c r="Q29" s="176"/>
-      <c r="R29" s="176"/>
+      <c r="Q29" s="171"/>
+      <c r="R29" s="171"/>
       <c r="S29" s="45"/>
       <c r="T29" s="45"/>
       <c r="V29" s="45"/>
@@ -5864,11 +5865,11 @@
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
       <c r="I30" s="45"/>
-      <c r="J30" s="176">
+      <c r="J30" s="171">
         <f>'Акт коты PCHCh'!E13</f>
         <v>15</v>
       </c>
-      <c r="K30" s="176"/>
+      <c r="K30" s="171"/>
       <c r="L30" s="45" t="s">
         <v>176</v>
       </c>
@@ -5894,11 +5895,11 @@
       <c r="G31" s="45"/>
       <c r="H31" s="45"/>
       <c r="I31" s="45"/>
-      <c r="J31" s="176">
+      <c r="J31" s="171">
         <f>J30</f>
         <v>15</v>
       </c>
-      <c r="K31" s="176"/>
+      <c r="K31" s="171"/>
       <c r="L31" s="45" t="s">
         <v>176</v>
       </c>
@@ -5940,32 +5941,36 @@
       <c r="Y32" s="61"/>
     </row>
     <row r="33" spans="10:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J33" s="193"/>
-      <c r="K33" s="193"/>
-      <c r="L33" s="193"/>
-      <c r="M33" s="193"/>
-      <c r="N33" s="193"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="194"/>
       <c r="O33" s="62"/>
-      <c r="Q33" s="194" t="s">
+      <c r="Q33" s="195" t="s">
         <v>47</v>
       </c>
-      <c r="R33" s="194"/>
-      <c r="S33" s="194"/>
-      <c r="T33" s="194"/>
-      <c r="U33" s="194"/>
-      <c r="V33" s="194"/>
-      <c r="W33" s="194"/>
-      <c r="X33" s="194"/>
-      <c r="Y33" s="194"/>
+      <c r="R33" s="195"/>
+      <c r="S33" s="195"/>
+      <c r="T33" s="195"/>
+      <c r="U33" s="195"/>
+      <c r="V33" s="195"/>
+      <c r="W33" s="195"/>
+      <c r="X33" s="195"/>
+      <c r="Y33" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J30:K30"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B18:E23"/>
     <mergeCell ref="J33:N33"/>
     <mergeCell ref="Q33:Y33"/>
     <mergeCell ref="A10:A11"/>
@@ -5980,10 +5985,6 @@
     <mergeCell ref="Q10:T11"/>
     <mergeCell ref="U10:Y11"/>
     <mergeCell ref="B10:E11"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="Q18:T23"/>
-    <mergeCell ref="U18:Y23"/>
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:I5"/>
@@ -5996,11 +5997,11 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B18:E23"/>
     <mergeCell ref="F18:H23"/>
     <mergeCell ref="I18:L23"/>
     <mergeCell ref="M18:P23"/>
+    <mergeCell ref="Q18:T23"/>
+    <mergeCell ref="U18:Y23"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6038,8 +6039,8 @@
   </sheetPr>
   <dimension ref="A1:AI43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:P24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7471,19 +7472,19 @@
       </c>
       <c r="F29" s="111"/>
       <c r="G29" s="111"/>
-      <c r="H29" s="108">
-        <v>1</v>
-      </c>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108">
-        <v>1</v>
-      </c>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
+      <c r="H29" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
       <c r="Q29" s="107" t="s">
         <v>200</v>
       </c>
@@ -9042,35 +9043,35 @@
       <c r="A5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="139" t="s">
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="142" t="s">
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="143"/>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="143"/>
-      <c r="W5" s="143"/>
-      <c r="X5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="145"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -9091,10 +9092,10 @@
       <c r="J6" s="134"/>
       <c r="K6" s="134"/>
       <c r="L6" s="134"/>
-      <c r="M6" s="145" t="s">
+      <c r="M6" s="139" t="s">
         <v>208</v>
       </c>
-      <c r="N6" s="145"/>
+      <c r="N6" s="139"/>
       <c r="O6" s="133" t="s">
         <v>97</v>
       </c>
@@ -9133,10 +9134,10 @@
       <c r="J7" s="134"/>
       <c r="K7" s="134"/>
       <c r="L7" s="134"/>
-      <c r="M7" s="145" t="s">
+      <c r="M7" s="139" t="s">
         <v>209</v>
       </c>
-      <c r="N7" s="145"/>
+      <c r="N7" s="139"/>
       <c r="O7" s="133" t="s">
         <v>210</v>
       </c>
@@ -9385,10 +9386,10 @@
       <c r="J13" s="134"/>
       <c r="K13" s="134"/>
       <c r="L13" s="134"/>
-      <c r="M13" s="145" t="s">
+      <c r="M13" s="139" t="s">
         <v>269</v>
       </c>
-      <c r="N13" s="145"/>
+      <c r="N13" s="139"/>
       <c r="O13" s="133" t="s">
         <v>104</v>
       </c>
@@ -9679,10 +9680,10 @@
       <c r="J20" s="134"/>
       <c r="K20" s="134"/>
       <c r="L20" s="134"/>
-      <c r="M20" s="145" t="s">
+      <c r="M20" s="139" t="s">
         <v>319</v>
       </c>
-      <c r="N20" s="145"/>
+      <c r="N20" s="139"/>
       <c r="O20" s="133" t="s">
         <v>320</v>
       </c>
@@ -11414,10 +11415,10 @@
       <c r="J9" s="134"/>
       <c r="K9" s="134"/>
       <c r="L9" s="134"/>
-      <c r="M9" s="145" t="s">
+      <c r="M9" s="139" t="s">
         <v>269</v>
       </c>
-      <c r="N9" s="145"/>
+      <c r="N9" s="139"/>
       <c r="O9" s="133" t="s">
         <v>104</v>
       </c>
@@ -11540,10 +11541,10 @@
       <c r="J12" s="134"/>
       <c r="K12" s="134"/>
       <c r="L12" s="134"/>
-      <c r="M12" s="145" t="s">
+      <c r="M12" s="139" t="s">
         <v>319</v>
       </c>
-      <c r="N12" s="145"/>
+      <c r="N12" s="139"/>
       <c r="O12" s="133" t="s">
         <v>320</v>
       </c>
@@ -11689,117 +11690,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="173" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="173"/>
+      <c r="L3" s="173"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="173"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="173" t="str">
+      <c r="A4" s="175" t="str">
         <f>'Акт коты PCHCh'!A4:X4</f>
         <v>20 січня 2020року</v>
       </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="173"/>
-      <c r="S4" s="173"/>
-      <c r="T4" s="173"/>
-      <c r="U4" s="173"/>
-      <c r="V4" s="173"/>
-      <c r="W4" s="173"/>
-      <c r="X4" s="173"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="175"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
+      <c r="Q4" s="175"/>
+      <c r="R4" s="175"/>
+      <c r="S4" s="175"/>
+      <c r="T4" s="175"/>
+      <c r="U4" s="175"/>
+      <c r="V4" s="175"/>
+      <c r="W4" s="175"/>
+      <c r="X4" s="175"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
@@ -11830,30 +11831,30 @@
     <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
       <c r="B6" s="45"/>
-      <c r="C6" s="174" t="s">
+      <c r="C6" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="174"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174"/>
-      <c r="O6" s="174"/>
-      <c r="P6" s="174"/>
-      <c r="Q6" s="174"/>
-      <c r="R6" s="174"/>
-      <c r="S6" s="174"/>
-      <c r="T6" s="174"/>
-      <c r="U6" s="174"/>
-      <c r="V6" s="174"/>
-      <c r="W6" s="174"/>
-      <c r="X6" s="174"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
+      <c r="V6" s="176"/>
+      <c r="W6" s="176"/>
+      <c r="X6" s="176"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
@@ -12001,12 +12002,12 @@
       <c r="X11" s="45"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="175" t="s">
+      <c r="A12" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="175"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
       <c r="E12" s="56">
         <v>13</v>
       </c>
@@ -12523,11 +12524,11 @@
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
-      <c r="E30" s="176">
+      <c r="E30" s="171">
         <f>E12</f>
         <v>13</v>
       </c>
-      <c r="F30" s="176"/>
+      <c r="F30" s="171"/>
       <c r="G30" s="45" t="s">
         <v>121</v>
       </c>
@@ -12538,11 +12539,11 @@
       <c r="M30" s="45"/>
       <c r="N30" s="45"/>
       <c r="O30" s="45"/>
-      <c r="P30" s="177">
+      <c r="P30" s="172">
         <f>E30</f>
         <v>13</v>
       </c>
-      <c r="Q30" s="177"/>
+      <c r="Q30" s="172"/>
       <c r="R30" s="45" t="s">
         <v>122</v>
       </c>
@@ -12560,21 +12561,21 @@
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
       <c r="G31" s="45"/>
-      <c r="H31" s="176">
+      <c r="H31" s="171">
         <f>E30*0.5</f>
         <v>6.5</v>
       </c>
-      <c r="I31" s="176"/>
+      <c r="I31" s="171"/>
       <c r="J31" s="45" t="s">
         <v>124</v>
       </c>
       <c r="K31" s="45"/>
       <c r="L31" s="45"/>
-      <c r="M31" s="176">
+      <c r="M31" s="171">
         <f>E30*0.5</f>
         <v>6.5</v>
       </c>
-      <c r="N31" s="176"/>
+      <c r="N31" s="171"/>
       <c r="O31" s="45" t="s">
         <v>125</v>
       </c>
@@ -12594,11 +12595,11 @@
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45"/>
-      <c r="F32" s="176">
+      <c r="F32" s="171">
         <f>E30</f>
         <v>13</v>
       </c>
-      <c r="G32" s="176"/>
+      <c r="G32" s="171"/>
       <c r="H32" s="45" t="s">
         <v>127</v>
       </c>
@@ -12658,11 +12659,11 @@
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
       <c r="I34" s="45"/>
-      <c r="J34" s="176">
+      <c r="J34" s="171">
         <f>E30</f>
         <v>13</v>
       </c>
-      <c r="K34" s="176"/>
+      <c r="K34" s="171"/>
       <c r="L34" s="45" t="s">
         <v>129</v>
       </c>
@@ -13116,10 +13117,10 @@
       <c r="J5" s="134"/>
       <c r="K5" s="134"/>
       <c r="L5" s="134"/>
-      <c r="M5" s="179" t="s">
+      <c r="M5" s="178" t="s">
         <v>217</v>
       </c>
-      <c r="N5" s="179"/>
+      <c r="N5" s="178"/>
       <c r="O5" s="133" t="s">
         <v>218</v>
       </c>
@@ -13158,10 +13159,10 @@
       <c r="J6" s="134"/>
       <c r="K6" s="134"/>
       <c r="L6" s="134"/>
-      <c r="M6" s="179" t="s">
+      <c r="M6" s="178" t="s">
         <v>226</v>
       </c>
-      <c r="N6" s="179"/>
+      <c r="N6" s="178"/>
       <c r="O6" s="133" t="s">
         <v>227</v>
       </c>
@@ -13200,10 +13201,10 @@
       <c r="J7" s="134"/>
       <c r="K7" s="134"/>
       <c r="L7" s="134"/>
-      <c r="M7" s="179" t="s">
+      <c r="M7" s="178" t="s">
         <v>230</v>
       </c>
-      <c r="N7" s="179"/>
+      <c r="N7" s="178"/>
       <c r="O7" s="133" t="s">
         <v>231</v>
       </c>
@@ -13242,10 +13243,10 @@
       <c r="J8" s="134"/>
       <c r="K8" s="134"/>
       <c r="L8" s="134"/>
-      <c r="M8" s="179" t="s">
+      <c r="M8" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="N8" s="179"/>
+      <c r="N8" s="178"/>
       <c r="O8" s="133" t="s">
         <v>238</v>
       </c>
@@ -13284,10 +13285,10 @@
       <c r="J9" s="134"/>
       <c r="K9" s="134"/>
       <c r="L9" s="134"/>
-      <c r="M9" s="179" t="s">
+      <c r="M9" s="178" t="s">
         <v>241</v>
       </c>
-      <c r="N9" s="179"/>
+      <c r="N9" s="178"/>
       <c r="O9" s="133" t="s">
         <v>242</v>
       </c>
@@ -13326,10 +13327,10 @@
       <c r="J10" s="134"/>
       <c r="K10" s="134"/>
       <c r="L10" s="134"/>
-      <c r="M10" s="179" t="s">
+      <c r="M10" s="178" t="s">
         <v>248</v>
       </c>
-      <c r="N10" s="179"/>
+      <c r="N10" s="178"/>
       <c r="O10" s="133" t="s">
         <v>249</v>
       </c>
@@ -13368,10 +13369,10 @@
       <c r="J11" s="134"/>
       <c r="K11" s="134"/>
       <c r="L11" s="134"/>
-      <c r="M11" s="179" t="s">
+      <c r="M11" s="178" t="s">
         <v>256</v>
       </c>
-      <c r="N11" s="179"/>
+      <c r="N11" s="178"/>
       <c r="O11" s="133" t="s">
         <v>257</v>
       </c>
@@ -13410,10 +13411,10 @@
       <c r="J12" s="134"/>
       <c r="K12" s="134"/>
       <c r="L12" s="134"/>
-      <c r="M12" s="179" t="s">
+      <c r="M12" s="178" t="s">
         <v>264</v>
       </c>
-      <c r="N12" s="179"/>
+      <c r="N12" s="178"/>
       <c r="O12" s="133" t="s">
         <v>184</v>
       </c>
@@ -13452,10 +13453,10 @@
       <c r="J13" s="134"/>
       <c r="K13" s="134"/>
       <c r="L13" s="134"/>
-      <c r="M13" s="179" t="s">
+      <c r="M13" s="178" t="s">
         <v>286</v>
       </c>
-      <c r="N13" s="179"/>
+      <c r="N13" s="178"/>
       <c r="O13" s="133" t="s">
         <v>287</v>
       </c>
@@ -13494,10 +13495,10 @@
       <c r="J14" s="134"/>
       <c r="K14" s="134"/>
       <c r="L14" s="134"/>
-      <c r="M14" s="179" t="s">
+      <c r="M14" s="178" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="179"/>
+      <c r="N14" s="178"/>
       <c r="O14" s="133" t="s">
         <v>290</v>
       </c>
@@ -13536,10 +13537,10 @@
       <c r="J15" s="134"/>
       <c r="K15" s="134"/>
       <c r="L15" s="134"/>
-      <c r="M15" s="179" t="s">
+      <c r="M15" s="178" t="s">
         <v>297</v>
       </c>
-      <c r="N15" s="179"/>
+      <c r="N15" s="178"/>
       <c r="O15" s="133" t="s">
         <v>298</v>
       </c>
@@ -13578,10 +13579,10 @@
       <c r="J16" s="134"/>
       <c r="K16" s="134"/>
       <c r="L16" s="134"/>
-      <c r="M16" s="179" t="s">
+      <c r="M16" s="178" t="s">
         <v>310</v>
       </c>
-      <c r="N16" s="179"/>
+      <c r="N16" s="178"/>
       <c r="O16" s="133" t="s">
         <v>311</v>
       </c>
@@ -13620,10 +13621,10 @@
       <c r="J17" s="134"/>
       <c r="K17" s="134"/>
       <c r="L17" s="134"/>
-      <c r="M17" s="178" t="s">
+      <c r="M17" s="179" t="s">
         <v>316</v>
       </c>
-      <c r="N17" s="178"/>
+      <c r="N17" s="179"/>
       <c r="O17" s="133" t="s">
         <v>317</v>
       </c>
@@ -13645,12 +13646,13 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:G4"/>
     <mergeCell ref="H3:N4"/>
     <mergeCell ref="O3:X4"/>
-    <mergeCell ref="V7:W7"/>
     <mergeCell ref="V5:W5"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="H6:L6"/>
@@ -13663,9 +13665,6 @@
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="R5:U5"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M7:N7"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:U7"/>
     <mergeCell ref="V9:W9"/>
@@ -13680,6 +13679,8 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="H10:L10"/>
@@ -15307,11 +15308,11 @@
       <c r="C54" s="45"/>
       <c r="D54" s="45"/>
       <c r="E54" s="45"/>
-      <c r="F54" s="177">
+      <c r="F54" s="172">
         <f>E13</f>
         <v>24</v>
       </c>
-      <c r="G54" s="177"/>
+      <c r="G54" s="172"/>
       <c r="H54" s="45" t="s">
         <v>121</v>
       </c>
@@ -15323,11 +15324,11 @@
       <c r="N54" s="45"/>
       <c r="O54" s="45"/>
       <c r="P54" s="45"/>
-      <c r="Q54" s="177">
+      <c r="Q54" s="172">
         <f>F54</f>
         <v>24</v>
       </c>
-      <c r="R54" s="177"/>
+      <c r="R54" s="172"/>
       <c r="S54" s="45" t="s">
         <v>122</v>
       </c>
@@ -15345,20 +15346,20 @@
       <c r="E55" s="45"/>
       <c r="F55" s="45"/>
       <c r="G55" s="45"/>
-      <c r="H55" s="176">
+      <c r="H55" s="171">
         <f>F54*0.5</f>
         <v>12</v>
       </c>
-      <c r="I55" s="176"/>
+      <c r="I55" s="171"/>
       <c r="J55" s="45" t="s">
         <v>124</v>
       </c>
       <c r="L55" s="45"/>
-      <c r="M55" s="177">
+      <c r="M55" s="172">
         <f>F54*0.5</f>
         <v>12</v>
       </c>
-      <c r="N55" s="177"/>
+      <c r="N55" s="172"/>
       <c r="O55" s="45" t="s">
         <v>125</v>
       </c>
@@ -15378,11 +15379,11 @@
       <c r="C56" s="45"/>
       <c r="D56" s="45"/>
       <c r="E56" s="45"/>
-      <c r="F56" s="176">
+      <c r="F56" s="171">
         <f>F54</f>
         <v>24</v>
       </c>
-      <c r="G56" s="176"/>
+      <c r="G56" s="171"/>
       <c r="H56" s="45" t="s">
         <v>127</v>
       </c>
@@ -15468,11 +15469,11 @@
       <c r="G59" s="45"/>
       <c r="H59" s="45"/>
       <c r="I59" s="45"/>
-      <c r="J59" s="177">
+      <c r="J59" s="172">
         <f>F54</f>
         <v>24</v>
       </c>
-      <c r="K59" s="177"/>
+      <c r="K59" s="172"/>
       <c r="L59" s="45" t="s">
         <v>129</v>
       </c>
